--- a/fitting real data/Dataset_S1.xlsx
+++ b/fitting real data/Dataset_S1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">Population</t>
   </si>
@@ -136,10 +136,10 @@
     <t xml:space="preserve">Barnesiella</t>
   </si>
   <si>
-    <t xml:space="preserve">undefined_genus_of_Lachnospiraceae</t>
+    <t xml:space="preserve">und_Lachnospiraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">unclassified_Lachnospiraceae</t>
+    <t xml:space="preserve">uncl_Lachnospiraceae</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Blautia</t>
   </si>
   <si>
-    <t xml:space="preserve">undefined_genus_of_unclassified_Mollicutes</t>
+    <t xml:space="preserve">und_uncl_Mollicutes</t>
   </si>
   <si>
     <t xml:space="preserve">Akkermansia</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Enterococcus</t>
   </si>
   <si>
-    <t xml:space="preserve">undefined_genus_of_Enterobacteriaceae</t>
+    <t xml:space="preserve">und_Enterobacteriaceae</t>
   </si>
   <si>
     <t xml:space="preserve">Vector of 1 referring to growth vector</t>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t xml:space="preserve">Data matrix F:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined_genus_of_Enterobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined_genus_of_unclassified_Mollicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined_genus_of_Lachnospiraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclassified_Lachnospiraceae</t>
   </si>
   <si>
     <r>
@@ -430,10 +442,10 @@
   <dimension ref="A1:BZ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.83"/>
   </cols>
@@ -4484,7 +4496,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
   </cols>
@@ -4968,7 +4980,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5.259</v>
@@ -5676,7 +5688,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.72794</v>
@@ -5912,7 +5924,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-3.7787</v>
@@ -6620,7 +6632,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-3.0331</v>
@@ -7584,14 +7596,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,7 +8161,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.5"/>
@@ -8157,15 +8169,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -8178,10 +8190,10 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,7 +8242,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.062123</v>
@@ -8274,7 +8286,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.14373</v>
@@ -8406,7 +8418,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>-0.11159</v>
@@ -8626,7 +8638,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>-0.3742</v>
@@ -8673,10 +8685,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>8</v>
@@ -8685,7 +8697,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>11</v>
@@ -8700,7 +8712,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
